--- a/booklet verification.xlsx
+++ b/booklet verification.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bashir102\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bashir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{971AFA17-F160-4401-8EAE-E2A5E737A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E2535-3DFF-419E-BD28-1AF28D5D2F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{942EA026-778E-4216-A7FB-C844F6D757F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{942EA026-778E-4216-A7FB-C844F6D757F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$618</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4187,22 +4188,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C74A84-08DC-49F3-9B90-AE8A04873717}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D599" sqref="D599"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>880</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>883</v>
       </c>
@@ -4244,7 +4246,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>885</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>887</v>
       </c>
@@ -4272,7 +4274,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>889</v>
       </c>
@@ -4286,7 +4288,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>891</v>
       </c>
@@ -4300,7 +4302,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>893</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>895</v>
       </c>
@@ -4328,7 +4330,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>897</v>
       </c>
@@ -4342,7 +4344,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>899</v>
       </c>
@@ -4356,7 +4358,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>901</v>
       </c>
@@ -4370,7 +4372,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>903</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>905</v>
       </c>
@@ -4398,7 +4400,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>907</v>
       </c>
@@ -4412,7 +4414,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>909</v>
       </c>
@@ -4426,7 +4428,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>911</v>
       </c>
@@ -4440,7 +4442,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>913</v>
       </c>
@@ -4454,7 +4456,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>915</v>
       </c>
@@ -4468,7 +4470,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>917</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>919</v>
       </c>
@@ -4496,7 +4498,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>921</v>
       </c>
@@ -4510,7 +4512,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>923</v>
       </c>
@@ -4524,7 +4526,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>925</v>
       </c>
@@ -4538,7 +4540,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>927</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>929</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>931</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>933</v>
       </c>
@@ -4594,7 +4596,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>935</v>
       </c>
@@ -4608,7 +4610,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>937</v>
       </c>
@@ -4622,7 +4624,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>939</v>
       </c>
@@ -4636,7 +4638,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>941</v>
       </c>
@@ -4650,7 +4652,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>943</v>
       </c>
@@ -4664,7 +4666,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>945</v>
       </c>
@@ -4678,7 +4680,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>947</v>
       </c>
@@ -4692,7 +4694,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>949</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>951</v>
       </c>
@@ -4720,7 +4722,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>953</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>955</v>
       </c>
@@ -4748,7 +4750,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>957</v>
       </c>
@@ -4762,7 +4764,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>959</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>961</v>
       </c>
@@ -4790,7 +4792,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>963</v>
       </c>
@@ -4804,7 +4806,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>965</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>967</v>
       </c>
@@ -4832,7 +4834,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>969</v>
       </c>
@@ -4846,7 +4848,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>971</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>973</v>
       </c>
@@ -4874,7 +4876,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>975</v>
       </c>
@@ -4888,7 +4890,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>977</v>
       </c>
@@ -4902,7 +4904,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>979</v>
       </c>
@@ -4916,7 +4918,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>981</v>
       </c>
@@ -4930,7 +4932,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>983</v>
       </c>
@@ -4944,7 +4946,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>985</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>987</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>989</v>
       </c>
@@ -4986,7 +4988,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>991</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>992</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>994</v>
       </c>
@@ -5028,7 +5030,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>996</v>
       </c>
@@ -5042,7 +5044,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>998</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>1000</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>1002</v>
       </c>
@@ -5084,7 +5086,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>1004</v>
       </c>
@@ -5098,7 +5100,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>1006</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1008</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1010</v>
       </c>
@@ -5140,7 +5142,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>1012</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>1014</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1016</v>
       </c>
@@ -5182,7 +5184,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>1018</v>
       </c>
@@ -5196,7 +5198,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>1020</v>
       </c>
@@ -5210,7 +5212,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>1022</v>
       </c>
@@ -5224,7 +5226,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>1024</v>
       </c>
@@ -5238,7 +5240,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>1026</v>
       </c>
@@ -5252,7 +5254,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>1028</v>
       </c>
@@ -5266,7 +5268,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>1030</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>1032</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>1034</v>
       </c>
@@ -5308,7 +5310,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>1036</v>
       </c>
@@ -5322,7 +5324,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>1038</v>
       </c>
@@ -5336,7 +5338,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>1040</v>
       </c>
@@ -5350,7 +5352,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>1042</v>
       </c>
@@ -5364,7 +5366,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>1044</v>
       </c>
@@ -5378,7 +5380,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>1047</v>
       </c>
@@ -5392,7 +5394,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>1049</v>
       </c>
@@ -5406,7 +5408,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>1051</v>
       </c>
@@ -5420,7 +5422,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>1053</v>
       </c>
@@ -5434,7 +5436,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>1055</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>1057</v>
       </c>
@@ -5462,7 +5464,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>1059</v>
       </c>
@@ -5476,7 +5478,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>1061</v>
       </c>
@@ -5490,7 +5492,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>1063</v>
       </c>
@@ -5504,7 +5506,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>1065</v>
       </c>
@@ -5518,7 +5520,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>1067</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>1069</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>1071</v>
       </c>
@@ -5560,7 +5562,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>1073</v>
       </c>
@@ -5574,7 +5576,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>1075</v>
       </c>
@@ -5588,7 +5590,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>1077</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>1079</v>
       </c>
@@ -5616,7 +5618,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1081</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>1083</v>
       </c>
@@ -5644,7 +5646,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>1085</v>
       </c>
@@ -5658,7 +5660,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>1087</v>
       </c>
@@ -5672,7 +5674,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>1091</v>
       </c>
@@ -5686,7 +5688,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>1093</v>
       </c>
@@ -5700,7 +5702,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>204</v>
       </c>
@@ -5714,7 +5716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>33</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>37</v>
       </c>
@@ -5742,7 +5744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>272</v>
       </c>
@@ -5756,7 +5758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>226</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>128</v>
       </c>
@@ -5784,7 +5786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>236</v>
       </c>
@@ -5798,7 +5800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>126</v>
       </c>
@@ -5812,7 +5814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>64</v>
       </c>
@@ -5826,7 +5828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>68</v>
       </c>
@@ -5840,7 +5842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>166</v>
       </c>
@@ -5854,7 +5856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>162</v>
       </c>
@@ -5868,7 +5870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>92</v>
       </c>
@@ -5882,7 +5884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>208</v>
       </c>
@@ -5896,7 +5898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>57</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
@@ -5924,7 +5926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>112</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>182</v>
       </c>
@@ -5966,7 +5968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>78</v>
       </c>
@@ -5980,7 +5982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>178</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>110</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>100</v>
       </c>
@@ -6022,7 +6024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>88</v>
       </c>
@@ -6036,7 +6038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>108</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>150</v>
       </c>
@@ -6064,7 +6066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>260</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>234</v>
       </c>
@@ -6092,7 +6094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>84</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>188</v>
       </c>
@@ -6120,7 +6122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
@@ -6134,7 +6136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>148</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>240</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>82</v>
       </c>
@@ -6176,7 +6178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>80</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>222</v>
       </c>
@@ -6204,7 +6206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>106</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>202</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>232</v>
       </c>
@@ -6246,7 +6248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>190</v>
       </c>
@@ -6260,7 +6262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>74</v>
       </c>
@@ -6274,7 +6276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>42</v>
       </c>
@@ -6288,7 +6290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>262</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>270</v>
       </c>
@@ -6316,7 +6318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>196</v>
       </c>
@@ -6330,7 +6332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>242</v>
       </c>
@@ -6344,7 +6346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>230</v>
       </c>
@@ -6358,7 +6360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>21</v>
       </c>
@@ -6372,7 +6374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>274</v>
       </c>
@@ -6386,7 +6388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>94</v>
       </c>
@@ -6400,7 +6402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>26</v>
       </c>
@@ -6414,7 +6416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>278</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>829</v>
       </c>
@@ -6442,7 +6444,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>282</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>284</v>
       </c>
@@ -6470,7 +6472,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>286</v>
       </c>
@@ -6484,7 +6486,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>288</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>290</v>
       </c>
@@ -6512,7 +6514,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>292</v>
       </c>
@@ -6526,7 +6528,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>294</v>
       </c>
@@ -6540,7 +6542,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>296</v>
       </c>
@@ -6554,7 +6556,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>298</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>300</v>
       </c>
@@ -6582,7 +6584,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>302</v>
       </c>
@@ -6596,7 +6598,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>304</v>
       </c>
@@ -6610,7 +6612,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>306</v>
       </c>
@@ -6624,7 +6626,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>308</v>
       </c>
@@ -6638,7 +6640,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>310</v>
       </c>
@@ -6652,7 +6654,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>312</v>
       </c>
@@ -6666,7 +6668,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>314</v>
       </c>
@@ -6680,7 +6682,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>316</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>318</v>
       </c>
@@ -6708,7 +6710,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>320</v>
       </c>
@@ -6722,7 +6724,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>322</v>
       </c>
@@ -6736,7 +6738,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>324</v>
       </c>
@@ -6750,7 +6752,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>326</v>
       </c>
@@ -6764,7 +6766,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>328</v>
       </c>
@@ -6778,7 +6780,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>330</v>
       </c>
@@ -6792,7 +6794,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>334</v>
       </c>
@@ -6806,7 +6808,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>338</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>340</v>
       </c>
@@ -6834,7 +6836,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>342</v>
       </c>
@@ -6848,7 +6850,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>344</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>346</v>
       </c>
@@ -6876,7 +6878,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>348</v>
       </c>
@@ -6890,7 +6892,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>350</v>
       </c>
@@ -6904,7 +6906,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>352</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>354</v>
       </c>
@@ -6932,7 +6934,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>356</v>
       </c>
@@ -6946,7 +6948,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>358</v>
       </c>
@@ -6960,7 +6962,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>360</v>
       </c>
@@ -6974,7 +6976,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>362</v>
       </c>
@@ -6988,7 +6990,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>364</v>
       </c>
@@ -7002,7 +7004,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>366</v>
       </c>
@@ -7016,7 +7018,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>368</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>370</v>
       </c>
@@ -7044,7 +7046,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>372</v>
       </c>
@@ -7058,7 +7060,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>374</v>
       </c>
@@ -7072,7 +7074,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>376</v>
       </c>
@@ -7086,7 +7088,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>378</v>
       </c>
@@ -7100,7 +7102,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>380</v>
       </c>
@@ -7114,7 +7116,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>382</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>384</v>
       </c>
@@ -7142,7 +7144,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>386</v>
       </c>
@@ -7156,7 +7158,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>388</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>390</v>
       </c>
@@ -7184,7 +7186,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>392</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>394</v>
       </c>
@@ -7212,7 +7214,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>396</v>
       </c>
@@ -7226,7 +7228,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>398</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>400</v>
       </c>
@@ -7254,7 +7256,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>402</v>
       </c>
@@ -7268,7 +7270,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>404</v>
       </c>
@@ -7282,7 +7284,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>406</v>
       </c>
@@ -7296,7 +7298,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>408</v>
       </c>
@@ -7310,7 +7312,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>410</v>
       </c>
@@ -7324,7 +7326,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>412</v>
       </c>
@@ -7338,7 +7340,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>414</v>
       </c>
@@ -7352,7 +7354,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>415</v>
       </c>
@@ -7366,7 +7368,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>417</v>
       </c>
@@ -7380,7 +7382,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>419</v>
       </c>
@@ -7394,7 +7396,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>421</v>
       </c>
@@ -7408,7 +7410,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>423</v>
       </c>
@@ -7422,7 +7424,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>425</v>
       </c>
@@ -7436,7 +7438,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>427</v>
       </c>
@@ -7450,7 +7452,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>429</v>
       </c>
@@ -7464,7 +7466,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>431</v>
       </c>
@@ -7478,7 +7480,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>433</v>
       </c>
@@ -7492,7 +7494,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>435</v>
       </c>
@@ -7506,7 +7508,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>437</v>
       </c>
@@ -7520,7 +7522,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>439</v>
       </c>
@@ -7534,7 +7536,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>441</v>
       </c>
@@ -7548,7 +7550,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>443</v>
       </c>
@@ -7562,7 +7564,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>444</v>
       </c>
@@ -7576,7 +7578,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>446</v>
       </c>
@@ -7590,7 +7592,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>448</v>
       </c>
@@ -7604,7 +7606,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>450</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>452</v>
       </c>
@@ -7632,7 +7634,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>454</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>456</v>
       </c>
@@ -7660,7 +7662,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>458</v>
       </c>
@@ -7674,7 +7676,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>460</v>
       </c>
@@ -7688,7 +7690,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>462</v>
       </c>
@@ -7702,7 +7704,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>464</v>
       </c>
@@ -7716,7 +7718,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>466</v>
       </c>
@@ -7730,7 +7732,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>468</v>
       </c>
@@ -7744,7 +7746,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>470</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>472</v>
       </c>
@@ -7772,7 +7774,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>474</v>
       </c>
@@ -7786,7 +7788,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>476</v>
       </c>
@@ -7800,7 +7802,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>478</v>
       </c>
@@ -7814,7 +7816,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>480</v>
       </c>
@@ -7828,7 +7830,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>482</v>
       </c>
@@ -7842,7 +7844,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>484</v>
       </c>
@@ -7856,7 +7858,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>486</v>
       </c>
@@ -7870,7 +7872,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>488</v>
       </c>
@@ -7884,7 +7886,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>490</v>
       </c>
@@ -7898,7 +7900,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>492</v>
       </c>
@@ -7912,7 +7914,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>494</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>496</v>
       </c>
@@ -7940,7 +7942,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>498</v>
       </c>
@@ -7954,7 +7956,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>500</v>
       </c>
@@ -7968,7 +7970,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>502</v>
       </c>
@@ -7982,7 +7984,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>504</v>
       </c>
@@ -7996,7 +7998,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>506</v>
       </c>
@@ -8010,7 +8012,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>508</v>
       </c>
@@ -8024,7 +8026,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>510</v>
       </c>
@@ -8038,7 +8040,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>512</v>
       </c>
@@ -8052,7 +8054,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>514</v>
       </c>
@@ -8066,7 +8068,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>516</v>
       </c>
@@ -8080,7 +8082,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>518</v>
       </c>
@@ -8094,7 +8096,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>520</v>
       </c>
@@ -8108,7 +8110,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>522</v>
       </c>
@@ -8122,7 +8124,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>524</v>
       </c>
@@ -8136,7 +8138,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>336</v>
       </c>
@@ -8150,7 +8152,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>526</v>
       </c>
@@ -8164,7 +8166,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>528</v>
       </c>
@@ -8178,7 +8180,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>530</v>
       </c>
@@ -8192,7 +8194,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>532</v>
       </c>
@@ -8206,7 +8208,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>332</v>
       </c>
@@ -8220,7 +8222,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>745</v>
       </c>
@@ -8234,7 +8236,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>747</v>
       </c>
@@ -8248,7 +8250,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>749</v>
       </c>
@@ -8262,7 +8264,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>751</v>
       </c>
@@ -8276,7 +8278,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>752</v>
       </c>
@@ -8290,7 +8292,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>754</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>756</v>
       </c>
@@ -8318,7 +8320,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>758</v>
       </c>
@@ -8332,7 +8334,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>759</v>
       </c>
@@ -8346,7 +8348,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>761</v>
       </c>
@@ -8360,7 +8362,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>762</v>
       </c>
@@ -8374,7 +8376,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>807</v>
       </c>
@@ -8388,7 +8390,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>764</v>
       </c>
@@ -8402,7 +8404,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>766</v>
       </c>
@@ -8416,7 +8418,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>768</v>
       </c>
@@ -8430,7 +8432,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>770</v>
       </c>
@@ -8444,7 +8446,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>772</v>
       </c>
@@ -8458,7 +8460,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>774</v>
       </c>
@@ -8472,7 +8474,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>776</v>
       </c>
@@ -8486,7 +8488,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>778</v>
       </c>
@@ -8500,7 +8502,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>780</v>
       </c>
@@ -8514,7 +8516,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>782</v>
       </c>
@@ -8528,7 +8530,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>784</v>
       </c>
@@ -8542,7 +8544,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>786</v>
       </c>
@@ -8556,7 +8558,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>788</v>
       </c>
@@ -8570,7 +8572,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>790</v>
       </c>
@@ -8584,7 +8586,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>792</v>
       </c>
@@ -8598,7 +8600,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>794</v>
       </c>
@@ -8612,7 +8614,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>796</v>
       </c>
@@ -8626,7 +8628,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>798</v>
       </c>
@@ -8640,7 +8642,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>800</v>
       </c>
@@ -8654,7 +8656,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>802</v>
       </c>
@@ -8668,7 +8670,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>803</v>
       </c>
@@ -8682,7 +8684,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>805</v>
       </c>
@@ -8696,7 +8698,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>809</v>
       </c>
@@ -8710,7 +8712,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>1095</v>
       </c>
@@ -8724,7 +8726,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>1098</v>
       </c>
@@ -8738,7 +8740,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>1100</v>
       </c>
@@ -8752,7 +8754,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>1102</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>1104</v>
       </c>
@@ -8780,7 +8782,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>1106</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>832</v>
       </c>
@@ -8808,7 +8810,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>835</v>
       </c>
@@ -8822,7 +8824,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>837</v>
       </c>
@@ -8836,7 +8838,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>841</v>
       </c>
@@ -8850,7 +8852,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>843</v>
       </c>
@@ -8864,7 +8866,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>845</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>847</v>
       </c>
@@ -8892,7 +8894,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>849</v>
       </c>
@@ -8906,7 +8908,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>851</v>
       </c>
@@ -8920,7 +8922,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>853</v>
       </c>
@@ -8934,7 +8936,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>855</v>
       </c>
@@ -8948,7 +8950,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>857</v>
       </c>
@@ -8962,7 +8964,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>859</v>
       </c>
@@ -8976,7 +8978,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>861</v>
       </c>
@@ -8990,7 +8992,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>839</v>
       </c>
@@ -9004,7 +9006,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>534</v>
       </c>
@@ -9018,7 +9020,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>537</v>
       </c>
@@ -9032,7 +9034,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>539</v>
       </c>
@@ -9046,7 +9048,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>541</v>
       </c>
@@ -9060,7 +9062,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>543</v>
       </c>
@@ -9074,7 +9076,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>545</v>
       </c>
@@ -9088,7 +9090,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>547</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>549</v>
       </c>
@@ -9116,7 +9118,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>551</v>
       </c>
@@ -9130,7 +9132,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>553</v>
       </c>
@@ -9144,7 +9146,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>555</v>
       </c>
@@ -9158,7 +9160,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>557</v>
       </c>
@@ -9172,7 +9174,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>559</v>
       </c>
@@ -9186,7 +9188,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>561</v>
       </c>
@@ -9200,7 +9202,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>563</v>
       </c>
@@ -9214,7 +9216,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>565</v>
       </c>
@@ -9228,7 +9230,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>567</v>
       </c>
@@ -9242,7 +9244,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>569</v>
       </c>
@@ -9256,7 +9258,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>571</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>573</v>
       </c>
@@ -9284,7 +9286,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>575</v>
       </c>
@@ -9298,7 +9300,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>577</v>
       </c>
@@ -9312,7 +9314,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>579</v>
       </c>
@@ -9326,7 +9328,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>581</v>
       </c>
@@ -9340,7 +9342,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>583</v>
       </c>
@@ -9354,7 +9356,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>585</v>
       </c>
@@ -9368,7 +9370,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>587</v>
       </c>
@@ -9382,7 +9384,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>589</v>
       </c>
@@ -9396,7 +9398,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>591</v>
       </c>
@@ -9410,7 +9412,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>593</v>
       </c>
@@ -9424,7 +9426,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>595</v>
       </c>
@@ -9438,7 +9440,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>597</v>
       </c>
@@ -9452,7 +9454,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>599</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>601</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>603</v>
       </c>
@@ -9494,7 +9496,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>605</v>
       </c>
@@ -9508,7 +9510,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>24</v>
       </c>
@@ -9522,7 +9524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>228</v>
       </c>
@@ -9536,7 +9538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>12</v>
       </c>
@@ -9550,7 +9552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>210</v>
       </c>
@@ -9564,7 +9566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>134</v>
       </c>
@@ -9578,7 +9580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>1130</v>
       </c>
@@ -9592,7 +9594,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>1110</v>
       </c>
@@ -9606,7 +9608,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>1113</v>
       </c>
@@ -9620,7 +9622,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>1115</v>
       </c>
@@ -9634,7 +9636,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>1117</v>
       </c>
@@ -9648,7 +9650,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>1119</v>
       </c>
@@ -9662,7 +9664,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>1121</v>
       </c>
@@ -9676,7 +9678,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>1123</v>
       </c>
@@ -9690,7 +9692,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>1124</v>
       </c>
@@ -9704,7 +9706,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>1126</v>
       </c>
@@ -9718,7 +9720,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>1128</v>
       </c>
@@ -9732,7 +9734,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>1132</v>
       </c>
@@ -9746,7 +9748,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>1134</v>
       </c>
@@ -9760,7 +9762,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>1136</v>
       </c>
@@ -9774,7 +9776,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9788,7 +9790,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>1140</v>
       </c>
@@ -9802,7 +9804,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>1142</v>
       </c>
@@ -9816,7 +9818,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>1144</v>
       </c>
@@ -9830,7 +9832,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>1146</v>
       </c>
@@ -9844,7 +9846,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>1148</v>
       </c>
@@ -9858,7 +9860,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>1150</v>
       </c>
@@ -9872,7 +9874,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>1152</v>
       </c>
@@ -9886,7 +9888,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>1154</v>
       </c>
@@ -9900,7 +9902,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>1156</v>
       </c>
@@ -9914,7 +9916,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>1158</v>
       </c>
@@ -9928,7 +9930,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>1160</v>
       </c>
@@ -9942,7 +9944,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>1161</v>
       </c>
@@ -9956,7 +9958,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>72</v>
       </c>
@@ -9970,7 +9972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>258</v>
       </c>
@@ -9984,7 +9986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>154</v>
       </c>
@@ -9998,7 +10000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>256</v>
       </c>
@@ -10012,7 +10014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>156</v>
       </c>
@@ -10026,7 +10028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>244</v>
       </c>
@@ -10040,7 +10042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>31</v>
       </c>
@@ -10054,7 +10056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>66</v>
       </c>
@@ -10068,7 +10070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>15</v>
       </c>
@@ -10082,7 +10084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>62</v>
       </c>
@@ -10096,7 +10098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>90</v>
       </c>
@@ -10110,7 +10112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>180</v>
       </c>
@@ -10124,7 +10126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>198</v>
       </c>
@@ -10138,7 +10140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>218</v>
       </c>
@@ -10152,7 +10154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>142</v>
       </c>
@@ -10166,7 +10168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>200</v>
       </c>
@@ -10180,7 +10182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>248</v>
       </c>
@@ -10194,7 +10196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>114</v>
       </c>
@@ -10208,7 +10210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>70</v>
       </c>
@@ -10222,7 +10224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>122</v>
       </c>
@@ -10236,7 +10238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>136</v>
       </c>
@@ -10250,7 +10252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>28</v>
       </c>
@@ -10264,7 +10266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>607</v>
       </c>
@@ -10278,7 +10280,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>610</v>
       </c>
@@ -10292,7 +10294,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>611</v>
       </c>
@@ -10306,7 +10308,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>613</v>
       </c>
@@ -10320,7 +10322,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>615</v>
       </c>
@@ -10334,7 +10336,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>617</v>
       </c>
@@ -10348,7 +10350,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>619</v>
       </c>
@@ -10362,7 +10364,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>621</v>
       </c>
@@ -10376,7 +10378,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>623</v>
       </c>
@@ -10390,7 +10392,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>625</v>
       </c>
@@ -10404,7 +10406,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>627</v>
       </c>
@@ -10418,7 +10420,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>629</v>
       </c>
@@ -10432,7 +10434,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>631</v>
       </c>
@@ -10446,7 +10448,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>819</v>
       </c>
@@ -10460,7 +10462,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>633</v>
       </c>
@@ -10474,7 +10476,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>825</v>
       </c>
@@ -10488,7 +10490,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>811</v>
       </c>
@@ -10502,7 +10504,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>635</v>
       </c>
@@ -10516,7 +10518,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>813</v>
       </c>
@@ -10530,7 +10532,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>817</v>
       </c>
@@ -10544,7 +10546,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>637</v>
       </c>
@@ -10558,7 +10560,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>815</v>
       </c>
@@ -10572,7 +10574,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>639</v>
       </c>
@@ -10586,7 +10588,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>827</v>
       </c>
@@ -10600,7 +10602,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>641</v>
       </c>
@@ -10614,7 +10616,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>821</v>
       </c>
@@ -10628,7 +10630,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>643</v>
       </c>
@@ -10642,7 +10644,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>645</v>
       </c>
@@ -10656,7 +10658,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>647</v>
       </c>
@@ -10670,7 +10672,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>649</v>
       </c>
@@ -10684,7 +10686,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>651</v>
       </c>
@@ -10698,7 +10700,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>653</v>
       </c>
@@ -10712,7 +10714,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>655</v>
       </c>
@@ -10726,7 +10728,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>657</v>
       </c>
@@ -10740,7 +10742,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>659</v>
       </c>
@@ -10754,7 +10756,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>661</v>
       </c>
@@ -10768,7 +10770,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>663</v>
       </c>
@@ -10782,7 +10784,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>665</v>
       </c>
@@ -10796,7 +10798,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>667</v>
       </c>
@@ -10810,7 +10812,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>669</v>
       </c>
@@ -10824,7 +10826,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>671</v>
       </c>
@@ -10838,7 +10840,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>673</v>
       </c>
@@ -10852,7 +10854,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>675</v>
       </c>
@@ -10866,7 +10868,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>677</v>
       </c>
@@ -10880,7 +10882,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>823</v>
       </c>
@@ -10894,7 +10896,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>679</v>
       </c>
@@ -10908,7 +10910,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>681</v>
       </c>
@@ -10922,7 +10924,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>683</v>
       </c>
@@ -10936,7 +10938,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>685</v>
       </c>
@@ -10950,7 +10952,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>687</v>
       </c>
@@ -10964,7 +10966,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>689</v>
       </c>
@@ -10978,7 +10980,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>691</v>
       </c>
@@ -10992,7 +10994,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>693</v>
       </c>
@@ -11006,7 +11008,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>695</v>
       </c>
@@ -11020,7 +11022,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>697</v>
       </c>
@@ -11034,7 +11036,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>700</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>702</v>
       </c>
@@ -11062,7 +11064,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>704</v>
       </c>
@@ -11076,7 +11078,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>706</v>
       </c>
@@ -11090,7 +11092,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>708</v>
       </c>
@@ -11104,7 +11106,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>710</v>
       </c>
@@ -11118,7 +11120,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>712</v>
       </c>
@@ -11132,7 +11134,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>714</v>
       </c>
@@ -11146,7 +11148,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>716</v>
       </c>
@@ -11160,7 +11162,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>718</v>
       </c>
@@ -11174,7 +11176,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>720</v>
       </c>
@@ -11188,7 +11190,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>1163</v>
       </c>
@@ -11202,7 +11204,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>1167</v>
       </c>
@@ -11216,7 +11218,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>1089</v>
       </c>
@@ -11230,7 +11232,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>172</v>
       </c>
@@ -11244,7 +11246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>1108</v>
       </c>
@@ -11258,7 +11260,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>174</v>
       </c>
@@ -11272,7 +11274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>872</v>
       </c>
@@ -11286,7 +11288,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>874</v>
       </c>
@@ -11300,7 +11302,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>876</v>
       </c>
@@ -11314,7 +11316,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>1181</v>
       </c>
@@ -11328,7 +11330,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>732</v>
       </c>
@@ -11342,7 +11344,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>184</v>
       </c>
@@ -11356,7 +11358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>120</v>
       </c>
@@ -11370,7 +11372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>59</v>
       </c>
@@ -11384,7 +11386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>138</v>
       </c>
@@ -11398,7 +11400,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>160</v>
       </c>
@@ -11412,7 +11414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>238</v>
       </c>
@@ -11426,7 +11428,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>124</v>
       </c>
@@ -11440,7 +11442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>130</v>
       </c>
@@ -11454,7 +11456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>224</v>
       </c>
@@ -11468,7 +11470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>96</v>
       </c>
@@ -11482,7 +11484,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>276</v>
       </c>
@@ -11496,7 +11498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>214</v>
       </c>
@@ -11510,7 +11512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>132</v>
       </c>
@@ -11524,7 +11526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>164</v>
       </c>
@@ -11538,7 +11540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>104</v>
       </c>
@@ -11552,7 +11554,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>268</v>
       </c>
@@ -11566,7 +11568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>1176</v>
       </c>
@@ -11580,7 +11582,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>1179</v>
       </c>
@@ -11594,7 +11596,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>1184</v>
       </c>
@@ -11608,7 +11610,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>1186</v>
       </c>
@@ -11622,7 +11624,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>186</v>
       </c>
@@ -11636,7 +11638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>176</v>
       </c>
@@ -11650,7 +11652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>18</v>
       </c>
@@ -11664,7 +11666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>118</v>
       </c>
@@ -11678,7 +11680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>194</v>
       </c>
@@ -11692,7 +11694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>250</v>
       </c>
@@ -11706,7 +11708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>1188</v>
       </c>
@@ -11720,7 +11722,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>1191</v>
       </c>
@@ -11734,7 +11736,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>1193</v>
       </c>
@@ -11748,7 +11750,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>152</v>
       </c>
@@ -11762,7 +11764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>86</v>
       </c>
@@ -11776,7 +11778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>170</v>
       </c>
@@ -11790,7 +11792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>264</v>
       </c>
@@ -11804,7 +11806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>192</v>
       </c>
@@ -11818,7 +11820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>220</v>
       </c>
@@ -11832,7 +11834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>98</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>51</v>
       </c>
@@ -11860,7 +11862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>76</v>
       </c>
@@ -11874,7 +11876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>140</v>
       </c>
@@ -11888,7 +11890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>4</v>
       </c>
@@ -11902,7 +11904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>246</v>
       </c>
@@ -11916,7 +11918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>116</v>
       </c>
@@ -11930,7 +11932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>212</v>
       </c>
@@ -11944,7 +11946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>47</v>
       </c>
@@ -11958,7 +11960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>144</v>
       </c>
@@ -11972,7 +11974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>55</v>
       </c>
@@ -11986,7 +11988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>102</v>
       </c>
@@ -12000,7 +12002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>216</v>
       </c>
@@ -12014,7 +12016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>44</v>
       </c>
@@ -12028,7 +12030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>254</v>
       </c>
@@ -12042,7 +12044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>206</v>
       </c>
@@ -12056,7 +12058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>252</v>
       </c>
@@ -12070,7 +12072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>266</v>
       </c>
@@ -12084,7 +12086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>39</v>
       </c>
@@ -12098,7 +12100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>53</v>
       </c>
@@ -12112,7 +12114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>1236</v>
       </c>
@@ -12126,7 +12128,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>1241</v>
       </c>
@@ -12140,7 +12142,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>1239</v>
       </c>
@@ -12154,7 +12156,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>1243</v>
       </c>
@@ -12168,7 +12170,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>1245</v>
       </c>
@@ -12182,7 +12184,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>1247</v>
       </c>
@@ -12196,7 +12198,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>1249</v>
       </c>
@@ -12210,7 +12212,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>1252</v>
       </c>
@@ -12224,7 +12226,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>1254</v>
       </c>
@@ -12238,7 +12240,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>1256</v>
       </c>
@@ -12252,7 +12254,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>1258</v>
       </c>
@@ -12266,7 +12268,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>1260</v>
       </c>
@@ -12280,7 +12282,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>1262</v>
       </c>
@@ -12294,7 +12296,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>1195</v>
       </c>
@@ -12308,7 +12310,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>1198</v>
       </c>
@@ -12322,7 +12324,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>1200</v>
       </c>
@@ -12336,7 +12338,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>1202</v>
       </c>
@@ -12350,7 +12352,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>1205</v>
       </c>
@@ -12364,7 +12366,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>1207</v>
       </c>
@@ -12378,7 +12380,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>1209</v>
       </c>
@@ -12392,7 +12394,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>1211</v>
       </c>
@@ -12406,7 +12408,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>1213</v>
       </c>
@@ -12420,7 +12422,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>1215</v>
       </c>
@@ -12434,7 +12436,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>1217</v>
       </c>
@@ -12448,7 +12450,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>1219</v>
       </c>
@@ -12462,7 +12464,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>1221</v>
       </c>
@@ -12476,7 +12478,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>1223</v>
       </c>
@@ -12490,7 +12492,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>1225</v>
       </c>
@@ -12504,7 +12506,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>1227</v>
       </c>
@@ -12518,7 +12520,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>1228</v>
       </c>
@@ -12532,7 +12534,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>1230</v>
       </c>
@@ -12546,7 +12548,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>1232</v>
       </c>
@@ -12560,7 +12562,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>1234</v>
       </c>
@@ -12574,7 +12576,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>722</v>
       </c>
@@ -12588,7 +12590,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>724</v>
       </c>
@@ -12602,7 +12604,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>726</v>
       </c>
@@ -12616,7 +12618,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>728</v>
       </c>
@@ -12630,7 +12632,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>730</v>
       </c>
@@ -12644,7 +12646,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>734</v>
       </c>
@@ -12658,7 +12660,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>736</v>
       </c>
@@ -12672,7 +12674,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>739</v>
       </c>
@@ -12686,7 +12688,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>741</v>
       </c>
@@ -12700,7 +12702,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>743</v>
       </c>
@@ -12714,7 +12716,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>863</v>
       </c>
@@ -12728,7 +12730,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>866</v>
       </c>
@@ -12742,7 +12744,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>868</v>
       </c>
@@ -12756,7 +12758,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>870</v>
       </c>
@@ -12770,7 +12772,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>1169</v>
       </c>
@@ -12784,7 +12786,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>1172</v>
       </c>
@@ -12798,7 +12800,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>1174</v>
       </c>
@@ -12812,7 +12814,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>878</v>
       </c>
@@ -12826,7 +12828,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>146</v>
       </c>
@@ -12840,7 +12842,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>168</v>
       </c>
@@ -12855,6 +12857,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D618" xr:uid="{07C74A84-08DC-49F3-9B90-AE8A04873717}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="BACHELOR OF BUSINESS ADMINISTRATION ( BBA - Hons. )"/>
+        <filter val="BACHELOR OF SCIENCE IN DIGITAL FORENSICS AND CYBER SECURITY"/>
+        <filter val="MASTER IN BUSINESS ADMINISTRATION ( MBA - 2 - YEARS )"/>
+        <filter val="MASTER IN BUSINESS ADMINISTRATION (MBA - 2 YEARS)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D618">
     <sortCondition ref="A2:A618"/>
   </sortState>
